--- a/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/variables.xlsx
+++ b/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,12 +502,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lags</t>
+          <t>lags_list</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[[1], [1, 10], [1, 10, 30]]</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14">
@@ -591,7 +591,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1, 3, 10, 100]</t>
+          <t>[1, 3, 10, 100, 200]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>data_without_target_size</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(19200, 27)</t>
         </is>
       </c>
     </row>
